--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1603800.644569465</v>
+        <v>1601339.846768567</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>357.6832083576998</v>
       </c>
       <c r="C11" t="n">
-        <v>340.2222584652267</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>329.6324083149021</v>
+        <v>329.6324083149022</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>356.879736766481</v>
       </c>
       <c r="F11" t="n">
-        <v>381.8254124359306</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>74.51524986914575</v>
       </c>
       <c r="H11" t="n">
-        <v>269.5571310815396</v>
+        <v>269.5571310815397</v>
       </c>
       <c r="I11" t="n">
-        <v>16.52629646714514</v>
+        <v>16.52629646714519</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.13712848239501</v>
+        <v>84.13712848239504</v>
       </c>
       <c r="T11" t="n">
-        <v>178.8673368338393</v>
+        <v>178.8673368338394</v>
       </c>
       <c r="U11" t="n">
         <v>225.9445386531212</v>
@@ -1433,7 +1433,7 @@
         <v>324.1903354116322</v>
       </c>
       <c r="X11" t="n">
-        <v>54.02778310715934</v>
+        <v>344.6804673726883</v>
       </c>
       <c r="Y11" t="n">
         <v>361.1873053502728</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>154.7813468761565</v>
       </c>
       <c r="C13" t="n">
-        <v>142.196187792847</v>
+        <v>142.1961877928471</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.3833293407884</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.3704147171505</v>
       </c>
       <c r="G13" t="n">
-        <v>140.9751749532474</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>33.62705390288514</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.88151936426652</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>164.7183920256611</v>
@@ -1591,10 +1591,10 @@
         <v>261.4723650308102</v>
       </c>
       <c r="X13" t="n">
-        <v>200.6590220832563</v>
+        <v>200.6590220832564</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.534020046314</v>
+        <v>190.2640242087739</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>341.1569118905547</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980817</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>313.1061118477571</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8532087518455</v>
+        <v>340.3534402993359</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>365.2991159687856</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>369.3447958805276</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>253.0308346143946</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524988</v>
+        <v>67.61083201524997</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>162.3410403666943</v>
       </c>
       <c r="U14" t="n">
         <v>209.4182421859761</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>158.9570464178184</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>328.1541709055432</v>
       </c>
       <c r="Y14" t="n">
         <v>344.6610088831277</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>82.18509172912134</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736433</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861024</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.1780851413949</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691217</v>
+        <v>54.77549063691225</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.83573827234765</v>
+        <v>47.35522289712149</v>
       </c>
       <c r="S16" t="n">
-        <v>148.192095558516</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032433</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U16" t="n">
         <v>244.634908432687</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161113</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0077235791689</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>310.7080717391073</v>
+        <v>310.7080717391071</v>
       </c>
       <c r="C17" t="n">
-        <v>293.2471218466342</v>
+        <v>293.2471218466341</v>
       </c>
       <c r="D17" t="n">
-        <v>282.6572716963096</v>
+        <v>282.6572716963095</v>
       </c>
       <c r="E17" t="n">
-        <v>309.9046001478885</v>
+        <v>309.9046001478883</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8502758173381</v>
+        <v>314.5209272941782</v>
       </c>
       <c r="G17" t="n">
-        <v>338.8959557290801</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>222.581994462947</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>37.16199186380237</v>
       </c>
       <c r="T17" t="n">
-        <v>131.8922002152468</v>
+        <v>131.8922002152467</v>
       </c>
       <c r="U17" t="n">
-        <v>178.9694020345286</v>
+        <v>178.9694020345285</v>
       </c>
       <c r="V17" t="n">
-        <v>156.2451706202704</v>
+        <v>255.7264885457615</v>
       </c>
       <c r="W17" t="n">
-        <v>277.2151987930397</v>
+        <v>277.2151987930396</v>
       </c>
       <c r="X17" t="n">
-        <v>297.7053307540957</v>
+        <v>297.7053307540956</v>
       </c>
       <c r="Y17" t="n">
         <v>314.2121687316802</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.817218682479</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107.8062102575639</v>
+        <v>107.8062102575638</v>
       </c>
       <c r="C19" t="n">
-        <v>95.22105117425448</v>
+        <v>95.22105117425438</v>
       </c>
       <c r="D19" t="n">
-        <v>76.58970309383901</v>
+        <v>76.58970309383891</v>
       </c>
       <c r="E19" t="n">
-        <v>74.40819272219582</v>
+        <v>74.40819272219572</v>
       </c>
       <c r="F19" t="n">
-        <v>105.8827597919914</v>
+        <v>73.3952780985578</v>
       </c>
       <c r="G19" t="n">
-        <v>94.00003833465487</v>
+        <v>94.00003833465477</v>
       </c>
       <c r="H19" t="n">
-        <v>72.72924498994743</v>
+        <v>72.72924498994733</v>
       </c>
       <c r="I19" t="n">
-        <v>24.32665048546472</v>
+        <v>24.32665048546465</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.90638274567394</v>
+        <v>16.90638274567388</v>
       </c>
       <c r="S19" t="n">
         <v>117.7432554070685</v>
@@ -2056,16 +2056,16 @@
         <v>147.5231793517958</v>
       </c>
       <c r="U19" t="n">
-        <v>214.1860682812395</v>
+        <v>246.6735499746734</v>
       </c>
       <c r="V19" t="n">
-        <v>180.1118733994547</v>
+        <v>180.1118733994546</v>
       </c>
       <c r="W19" t="n">
-        <v>214.4972284122177</v>
+        <v>214.4972284122176</v>
       </c>
       <c r="X19" t="n">
-        <v>153.6838854646638</v>
+        <v>153.6838854646637</v>
       </c>
       <c r="Y19" t="n">
         <v>146.5588834277214</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>310.7080717391073</v>
+        <v>310.7080717391071</v>
       </c>
       <c r="C20" t="n">
-        <v>293.2471218466342</v>
+        <v>293.2471218466341</v>
       </c>
       <c r="D20" t="n">
-        <v>282.6572716963096</v>
+        <v>262.3279231731481</v>
       </c>
       <c r="E20" t="n">
-        <v>82.57149611089434</v>
+        <v>309.9046001478883</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8502758173381</v>
+        <v>334.850275817338</v>
       </c>
       <c r="G20" t="n">
-        <v>338.8959557290801</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>222.5819944629471</v>
+        <v>222.581994462947</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>37.16199186380244</v>
+        <v>37.16199186380237</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>131.8922002152467</v>
       </c>
       <c r="U20" t="n">
-        <v>178.9694020345286</v>
+        <v>178.9694020345285</v>
       </c>
       <c r="V20" t="n">
-        <v>255.7264885457616</v>
+        <v>255.7264885457614</v>
       </c>
       <c r="W20" t="n">
-        <v>277.2151987930397</v>
+        <v>277.2151987930396</v>
       </c>
       <c r="X20" t="n">
-        <v>297.7053307540957</v>
+        <v>297.7053307540956</v>
       </c>
       <c r="Y20" t="n">
-        <v>314.2121687316802</v>
+        <v>314.2121687316801</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.8062102575639</v>
+        <v>107.8062102575638</v>
       </c>
       <c r="C22" t="n">
-        <v>95.22105117425448</v>
+        <v>95.22105117425437</v>
       </c>
       <c r="D22" t="n">
-        <v>76.58970309383901</v>
+        <v>76.58970309383889</v>
       </c>
       <c r="E22" t="n">
-        <v>74.40819272219582</v>
+        <v>74.40819272219571</v>
       </c>
       <c r="F22" t="n">
-        <v>73.3952780985579</v>
+        <v>73.39527809855778</v>
       </c>
       <c r="G22" t="n">
-        <v>94.00003833465487</v>
+        <v>94.00003833465476</v>
       </c>
       <c r="H22" t="n">
-        <v>72.72924498994743</v>
+        <v>72.72924498994732</v>
       </c>
       <c r="I22" t="n">
-        <v>24.32665048546472</v>
+        <v>24.32665048546463</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.90638274567394</v>
+        <v>16.90638274567387</v>
       </c>
       <c r="S22" t="n">
-        <v>117.7432554070685</v>
+        <v>117.7432554070684</v>
       </c>
       <c r="T22" t="n">
-        <v>147.5231793517958</v>
+        <v>147.5231793517957</v>
       </c>
       <c r="U22" t="n">
-        <v>214.1860682812395</v>
+        <v>246.6735499746734</v>
       </c>
       <c r="V22" t="n">
-        <v>180.1118733994547</v>
+        <v>180.1118733994545</v>
       </c>
       <c r="W22" t="n">
-        <v>214.4972284122177</v>
+        <v>214.4972284122175</v>
       </c>
       <c r="X22" t="n">
-        <v>186.1713671580973</v>
+        <v>153.6838854646637</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.5588834277214</v>
+        <v>146.5588834277213</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>310.7080717391073</v>
+        <v>310.708071739107</v>
       </c>
       <c r="C23" t="n">
-        <v>293.2471218466342</v>
+        <v>293.2471218466339</v>
       </c>
       <c r="D23" t="n">
-        <v>282.6572716963096</v>
+        <v>282.6572716963094</v>
       </c>
       <c r="E23" t="n">
-        <v>309.9046001478885</v>
+        <v>309.9046001478882</v>
       </c>
       <c r="F23" t="n">
-        <v>334.8502758173381</v>
+        <v>334.8502758173379</v>
       </c>
       <c r="G23" t="n">
-        <v>338.8959557290801</v>
+        <v>338.8959557290799</v>
       </c>
       <c r="H23" t="n">
-        <v>222.5819944629471</v>
+        <v>222.5819944629469</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.16199186380248</v>
+        <v>37.16199186380226</v>
       </c>
       <c r="T23" t="n">
-        <v>131.8922002152468</v>
+        <v>131.8922002152466</v>
       </c>
       <c r="U23" t="n">
-        <v>178.9694020345286</v>
+        <v>178.9694020345284</v>
       </c>
       <c r="V23" t="n">
-        <v>255.7264885457616</v>
+        <v>255.7264885457613</v>
       </c>
       <c r="W23" t="n">
-        <v>277.2151987930397</v>
+        <v>277.2151987930395</v>
       </c>
       <c r="X23" t="n">
-        <v>297.7053307540957</v>
+        <v>297.7053307540955</v>
       </c>
       <c r="Y23" t="n">
-        <v>314.2121687316802</v>
+        <v>314.21216873168</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.8062102575639</v>
+        <v>107.8062102575637</v>
       </c>
       <c r="C25" t="n">
-        <v>95.22105117425448</v>
+        <v>95.22105117425426</v>
       </c>
       <c r="D25" t="n">
-        <v>76.58970309383901</v>
+        <v>76.58970309383878</v>
       </c>
       <c r="E25" t="n">
-        <v>74.40819272219582</v>
+        <v>74.40819272219559</v>
       </c>
       <c r="F25" t="n">
-        <v>73.3952780985579</v>
+        <v>73.39527809855767</v>
       </c>
       <c r="G25" t="n">
-        <v>94.00003833465487</v>
+        <v>94.00003833465465</v>
       </c>
       <c r="H25" t="n">
-        <v>72.72924498994743</v>
+        <v>72.7292449899472</v>
       </c>
       <c r="I25" t="n">
-        <v>24.32665048546475</v>
+        <v>24.32665048546452</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.90638274567398</v>
+        <v>16.90638274567375</v>
       </c>
       <c r="S25" t="n">
-        <v>117.7432554070685</v>
+        <v>150.230737100505</v>
       </c>
       <c r="T25" t="n">
-        <v>147.5231793517958</v>
+        <v>147.5231793517956</v>
       </c>
       <c r="U25" t="n">
-        <v>214.1860682812395</v>
+        <v>214.1860682812393</v>
       </c>
       <c r="V25" t="n">
-        <v>212.5993550928874</v>
+        <v>180.1118733994544</v>
       </c>
       <c r="W25" t="n">
-        <v>214.4972284122177</v>
+        <v>214.4972284122174</v>
       </c>
       <c r="X25" t="n">
-        <v>153.6838854646638</v>
+        <v>153.6838854646636</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.5588834277214</v>
+        <v>146.5588834277212</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2615,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988195</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598765</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124555</v>
@@ -2764,22 +2764,22 @@
         <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128494</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231188</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958316</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279765</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433857</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572811</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124542</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145466</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309233</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>239.4866237999598</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>170.231873425326</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>111.7690391349169</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>98.69583361727734</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333692</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353754</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925778</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441566</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253488</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592153</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007067</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.233249911515</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307968</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420297</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893078</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279484</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052268</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010721</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846402</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922059</v>
+        <v>47.7363277948261</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092307</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621563</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439593</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333675</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957228</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239896</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>301.5754179025207</v>
+        <v>301.5754179025205</v>
       </c>
       <c r="C44" t="n">
-        <v>284.1144680100476</v>
+        <v>284.1144680100475</v>
       </c>
       <c r="D44" t="n">
-        <v>273.5246178597231</v>
+        <v>273.5246178597229</v>
       </c>
       <c r="E44" t="n">
-        <v>300.7719463113019</v>
+        <v>69.4037957712729</v>
       </c>
       <c r="F44" t="n">
-        <v>325.7176219807516</v>
+        <v>325.7176219807513</v>
       </c>
       <c r="G44" t="n">
-        <v>98.39515135246269</v>
+        <v>329.7633018924934</v>
       </c>
       <c r="H44" t="n">
-        <v>213.4493406263606</v>
+        <v>213.4493406263604</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.02933802721594</v>
+        <v>28.02933802721577</v>
       </c>
       <c r="T44" t="n">
-        <v>122.7595463786603</v>
+        <v>122.7595463786601</v>
       </c>
       <c r="U44" t="n">
-        <v>169.8367481979421</v>
+        <v>169.8367481979419</v>
       </c>
       <c r="V44" t="n">
-        <v>246.593834709175</v>
+        <v>246.5938347091748</v>
       </c>
       <c r="W44" t="n">
-        <v>268.0825449564531</v>
+        <v>268.0825449564529</v>
       </c>
       <c r="X44" t="n">
-        <v>288.5726769175092</v>
+        <v>288.5726769175089</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.0795148950937</v>
+        <v>305.0795148950936</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>98.67355642097723</v>
       </c>
       <c r="C46" t="n">
-        <v>86.08839733766794</v>
+        <v>86.08839733766777</v>
       </c>
       <c r="D46" t="n">
-        <v>67.45704925725246</v>
+        <v>67.45704925725229</v>
       </c>
       <c r="E46" t="n">
-        <v>65.27553888560928</v>
+        <v>65.27553888560911</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>64.26262426197118</v>
       </c>
       <c r="G46" t="n">
-        <v>84.86738449806833</v>
+        <v>84.86738449806816</v>
       </c>
       <c r="H46" t="n">
-        <v>63.59659115336089</v>
+        <v>63.59659115336072</v>
       </c>
       <c r="I46" t="n">
-        <v>15.1939966488782</v>
+        <v>15.19399664887803</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.773728909087438</v>
+        <v>7.773728909087268</v>
       </c>
       <c r="S46" t="n">
-        <v>108.610601570482</v>
+        <v>108.6106015704818</v>
       </c>
       <c r="T46" t="n">
-        <v>138.3905255152093</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>205.053414444653</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>170.9792195628681</v>
+        <v>187.2723151197676</v>
       </c>
       <c r="W46" t="n">
-        <v>205.3645745756311</v>
+        <v>205.3645745756309</v>
       </c>
       <c r="X46" t="n">
-        <v>160.8443271849747</v>
+        <v>144.5512316280771</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.4262295911349</v>
+        <v>137.4262295911347</v>
       </c>
     </row>
   </sheetData>
@@ -5015,58 +5015,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1417.788385891521</v>
+        <v>1124.199815926339</v>
       </c>
       <c r="C11" t="n">
-        <v>1074.129538956949</v>
+        <v>1124.199815926339</v>
       </c>
       <c r="D11" t="n">
-        <v>741.1675103560376</v>
+        <v>791.2377873254281</v>
       </c>
       <c r="E11" t="n">
-        <v>741.1675103560376</v>
+        <v>430.7532047330225</v>
       </c>
       <c r="F11" t="n">
-        <v>355.4852755722692</v>
+        <v>430.7532047330225</v>
       </c>
       <c r="G11" t="n">
         <v>355.4852755722692</v>
       </c>
       <c r="H11" t="n">
-        <v>83.20534518687549</v>
+        <v>83.20534518687552</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3240.618823142106</v>
+        <v>3240.618823142105</v>
       </c>
       <c r="T11" t="n">
         <v>3059.944745532167</v>
@@ -5075,16 +5075,16 @@
         <v>2831.717938811842</v>
       </c>
       <c r="V11" t="n">
-        <v>2525.958721474111</v>
+        <v>2525.95872147411</v>
       </c>
       <c r="W11" t="n">
-        <v>2198.493736209836</v>
+        <v>2198.493736209835</v>
       </c>
       <c r="X11" t="n">
-        <v>2143.920217919776</v>
+        <v>1850.331647954595</v>
       </c>
       <c r="Y11" t="n">
-        <v>1779.084555949804</v>
+        <v>1485.495985984622</v>
       </c>
     </row>
     <row r="12">
@@ -5115,10 +5115,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>386.5105170877184</v>
+        <v>454.3403304228763</v>
       </c>
       <c r="C13" t="n">
-        <v>242.8780041656507</v>
+        <v>310.7078175008085</v>
       </c>
       <c r="D13" t="n">
-        <v>242.8780041656507</v>
+        <v>310.7078175008085</v>
       </c>
       <c r="E13" t="n">
-        <v>242.8780041656507</v>
+        <v>188.0983939242546</v>
       </c>
       <c r="F13" t="n">
-        <v>242.8780041656507</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>100.4788375462088</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>136.434875851842</v>
       </c>
       <c r="K13" t="n">
-        <v>365.2221857734413</v>
+        <v>365.2221857734411</v>
       </c>
       <c r="L13" t="n">
-        <v>706.5821111946605</v>
+        <v>706.5821111946602</v>
       </c>
       <c r="M13" t="n">
         <v>1075.539283766932</v>
@@ -5218,31 +5218,31 @@
         <v>2023.285140745039</v>
       </c>
       <c r="Q13" t="n">
-        <v>2125.695563870277</v>
+        <v>2125.695563870276</v>
       </c>
       <c r="R13" t="n">
-        <v>2061.168776633644</v>
+        <v>2125.695563870276</v>
       </c>
       <c r="S13" t="n">
-        <v>1894.786562466309</v>
+        <v>1959.313349702942</v>
       </c>
       <c r="T13" t="n">
-        <v>1698.323617041675</v>
+        <v>1762.850404278307</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.524420173157</v>
+        <v>1499.05120740979</v>
       </c>
       <c r="V13" t="n">
-        <v>1205.143601973109</v>
+        <v>1269.670389209742</v>
       </c>
       <c r="W13" t="n">
-        <v>941.0301019419878</v>
+        <v>1005.55688917862</v>
       </c>
       <c r="X13" t="n">
-        <v>738.3442210498097</v>
+        <v>802.8710082864422</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.8553119121189</v>
+        <v>610.6851252472768</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.51740247346</v>
+        <v>1407.954729324148</v>
       </c>
       <c r="C14" t="n">
-        <v>1241.55178429358</v>
+        <v>1407.954729324148</v>
       </c>
       <c r="D14" t="n">
-        <v>925.2829844473608</v>
+        <v>1407.954729324148</v>
       </c>
       <c r="E14" t="n">
-        <v>691.0878240919614</v>
+        <v>1064.163375486435</v>
       </c>
       <c r="F14" t="n">
-        <v>322.098818062885</v>
+        <v>695.1743694573584</v>
       </c>
       <c r="G14" t="n">
-        <v>322.098818062885</v>
+        <v>322.0988180628851</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
         <v>3257.312051896798</v>
       </c>
       <c r="T14" t="n">
-        <v>3093.331203041552</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="U14" t="n">
-        <v>2881.797625075919</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V14" t="n">
-        <v>2592.73163649288</v>
+        <v>2592.731636492879</v>
       </c>
       <c r="W14" t="n">
-        <v>2592.73163649288</v>
+        <v>2432.168963343568</v>
       </c>
       <c r="X14" t="n">
-        <v>2261.262776992332</v>
+        <v>2100.700103843019</v>
       </c>
       <c r="Y14" t="n">
-        <v>1913.120343777051</v>
+        <v>1752.557670627738</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>693.4151010964778</v>
+        <v>667.6378438997351</v>
       </c>
       <c r="C16" t="n">
-        <v>566.4758169291021</v>
+        <v>540.6985597323594</v>
       </c>
       <c r="D16" t="n">
-        <v>458.3560762772975</v>
+        <v>457.6833155615298</v>
       </c>
       <c r="E16" t="n">
-        <v>352.4398814554356</v>
+        <v>351.7671207396678</v>
       </c>
       <c r="F16" t="n">
-        <v>247.5468327180565</v>
+        <v>351.7671207396678</v>
       </c>
       <c r="G16" t="n">
-        <v>121.8408948533068</v>
+        <v>226.0611828749179</v>
       </c>
       <c r="H16" t="n">
         <v>121.8408948533068</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543156</v>
+        <v>152.7959093543154</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783887</v>
+        <v>397.9442527783883</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020815</v>
+        <v>755.665211702081</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.552954957889</v>
+        <v>1523.552954957888</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353499</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262355</v>
+        <v>2137.812375262354</v>
       </c>
       <c r="Q16" t="n">
         <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.527530604866</v>
+        <v>2208.750273408124</v>
       </c>
       <c r="S16" t="n">
-        <v>2084.838545192224</v>
+        <v>2059.061287995482</v>
       </c>
       <c r="T16" t="n">
-        <v>1905.068828522281</v>
+        <v>1879.291571325539</v>
       </c>
       <c r="U16" t="n">
-        <v>1657.962860408456</v>
+        <v>1632.185603211714</v>
       </c>
       <c r="V16" t="n">
-        <v>1445.275270963101</v>
+        <v>1419.498013766358</v>
       </c>
       <c r="W16" t="n">
-        <v>1197.854999686671</v>
+        <v>1172.077742489929</v>
       </c>
       <c r="X16" t="n">
-        <v>1011.862347549185</v>
+        <v>986.0850903524426</v>
       </c>
       <c r="Y16" t="n">
-        <v>833.0666671661862</v>
+        <v>807.2894099694437</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1641.820424752639</v>
+        <v>1503.796879510929</v>
       </c>
       <c r="C17" t="n">
-        <v>1345.611210766139</v>
+        <v>1207.58766552443</v>
       </c>
       <c r="D17" t="n">
-        <v>1060.098815113301</v>
+        <v>922.0752698715917</v>
       </c>
       <c r="E17" t="n">
-        <v>747.0638654689697</v>
+        <v>609.0403202272601</v>
       </c>
       <c r="F17" t="n">
-        <v>408.8312636332745</v>
+        <v>291.3424138695037</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>291.3424138695037</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218345</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5534,31 +5534,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3288.06845609018</v>
       </c>
       <c r="T17" t="n">
-        <v>3192.381376947307</v>
+        <v>3154.844011428315</v>
       </c>
       <c r="U17" t="n">
-        <v>3011.604203175056</v>
+        <v>2974.066837656064</v>
       </c>
       <c r="V17" t="n">
-        <v>2853.780798508116</v>
+        <v>2715.757253266406</v>
       </c>
       <c r="W17" t="n">
-        <v>2573.765446191915</v>
+        <v>2435.741900950205</v>
       </c>
       <c r="X17" t="n">
-        <v>2273.052990884747</v>
+        <v>2135.029445643037</v>
       </c>
       <c r="Y17" t="n">
-        <v>1955.666961862848</v>
+        <v>1817.643416621138</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387319</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>615.1561978385953</v>
+        <v>582.3405597644194</v>
       </c>
       <c r="C19" t="n">
-        <v>518.9733178646009</v>
+        <v>486.157679790425</v>
       </c>
       <c r="D19" t="n">
-        <v>441.6099814061776</v>
+        <v>408.7943433320019</v>
       </c>
       <c r="E19" t="n">
-        <v>366.450190777697</v>
+        <v>333.6345527035214</v>
       </c>
       <c r="F19" t="n">
-        <v>259.4979081595239</v>
+        <v>259.4979081595236</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5483744881553</v>
+        <v>164.5483744881552</v>
       </c>
       <c r="H19" t="n">
-        <v>91.08449065992559</v>
+        <v>91.08449065992552</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1910.217393799934</v>
+        <v>1910.217393799933</v>
       </c>
       <c r="S19" t="n">
-        <v>1791.284812580673</v>
+        <v>1791.284812580672</v>
       </c>
       <c r="T19" t="n">
         <v>1642.271500104111</v>
       </c>
       <c r="U19" t="n">
-        <v>1425.921936183667</v>
+        <v>1393.106298109491</v>
       </c>
       <c r="V19" t="n">
-        <v>1243.990750931693</v>
+        <v>1211.175112857517</v>
       </c>
       <c r="W19" t="n">
-        <v>1027.326883848645</v>
+        <v>994.5112457744689</v>
       </c>
       <c r="X19" t="n">
-        <v>872.09063590454</v>
+        <v>839.2749978303641</v>
       </c>
       <c r="Y19" t="n">
-        <v>724.0513597149225</v>
+        <v>691.2357216407465</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1637.021324172793</v>
+        <v>1503.796879510926</v>
       </c>
       <c r="C20" t="n">
-        <v>1340.812110186294</v>
+        <v>1207.587665524427</v>
       </c>
       <c r="D20" t="n">
-        <v>1055.299714533456</v>
+        <v>942.6099653495302</v>
       </c>
       <c r="E20" t="n">
-        <v>971.8941629062897</v>
+        <v>629.5750157051984</v>
       </c>
       <c r="F20" t="n">
-        <v>633.6615610705946</v>
+        <v>291.3424138695035</v>
       </c>
       <c r="G20" t="n">
-        <v>291.3424138695038</v>
+        <v>291.3424138695035</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3288.06845609018</v>
+        <v>3288.068456090178</v>
       </c>
       <c r="T20" t="n">
-        <v>3288.06845609018</v>
+        <v>3154.844011428313</v>
       </c>
       <c r="U20" t="n">
-        <v>3107.291282317929</v>
+        <v>2974.066837656062</v>
       </c>
       <c r="V20" t="n">
-        <v>2848.98169792827</v>
+        <v>2715.757253266404</v>
       </c>
       <c r="W20" t="n">
-        <v>2568.966345612069</v>
+        <v>2435.741900950202</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.253890304901</v>
+        <v>2135.029445643035</v>
       </c>
       <c r="Y20" t="n">
-        <v>1950.867861283002</v>
+        <v>1817.643416621136</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
@@ -5826,19 +5826,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992583</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>582.34055976442</v>
+        <v>582.3405597644194</v>
       </c>
       <c r="C22" t="n">
-        <v>486.1576797904257</v>
+        <v>486.157679790425</v>
       </c>
       <c r="D22" t="n">
-        <v>408.7943433320024</v>
+        <v>408.7943433320019</v>
       </c>
       <c r="E22" t="n">
-        <v>333.6345527035218</v>
+        <v>333.6345527035213</v>
       </c>
       <c r="F22" t="n">
-        <v>259.4979081595239</v>
+        <v>259.4979081595235</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5483744881553</v>
+        <v>164.5483744881551</v>
       </c>
       <c r="H22" t="n">
-        <v>91.08449065992559</v>
+        <v>91.08449065992548</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1910.217393799934</v>
+        <v>1910.217393799933</v>
       </c>
       <c r="S22" t="n">
-        <v>1791.284812580673</v>
+        <v>1791.284812580672</v>
       </c>
       <c r="T22" t="n">
         <v>1642.271500104111</v>
       </c>
       <c r="U22" t="n">
-        <v>1425.921936183667</v>
+        <v>1393.106298109491</v>
       </c>
       <c r="V22" t="n">
-        <v>1243.990750931693</v>
+        <v>1211.175112857517</v>
       </c>
       <c r="W22" t="n">
-        <v>1027.326883848645</v>
+        <v>994.5112457744689</v>
       </c>
       <c r="X22" t="n">
-        <v>839.2749978303648</v>
+        <v>839.2749978303641</v>
       </c>
       <c r="Y22" t="n">
-        <v>691.2357216407472</v>
+        <v>691.2357216407465</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1874.055902652796</v>
+        <v>1874.055902652795</v>
       </c>
       <c r="C23" t="n">
         <v>1577.846688666296</v>
       </c>
       <c r="D23" t="n">
-        <v>1292.334293013459</v>
+        <v>1292.334293013458</v>
       </c>
       <c r="E23" t="n">
-        <v>979.299343369127</v>
+        <v>979.2993433691263</v>
       </c>
       <c r="F23" t="n">
-        <v>641.0667415334319</v>
+        <v>641.0667415334317</v>
       </c>
       <c r="G23" t="n">
-        <v>298.7475943323411</v>
+        <v>298.7475943323409</v>
       </c>
       <c r="H23" t="n">
-        <v>73.91729689502083</v>
+        <v>73.91729689502077</v>
       </c>
       <c r="I23" t="n">
-        <v>73.91729689502083</v>
+        <v>73.91729689502077</v>
       </c>
       <c r="J23" t="n">
-        <v>262.7964278540463</v>
+        <v>307.0695494433085</v>
       </c>
       <c r="K23" t="n">
-        <v>596.6158015438928</v>
+        <v>640.888923133155</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.650014792302</v>
+        <v>1091.923136381564</v>
       </c>
       <c r="M23" t="n">
-        <v>1581.181919464226</v>
+        <v>1625.455041053488</v>
       </c>
       <c r="N23" t="n">
-        <v>2490.814579202041</v>
+        <v>2172.233858112271</v>
       </c>
       <c r="O23" t="n">
-        <v>2993.787050081378</v>
+        <v>2675.206328991608</v>
       </c>
       <c r="P23" t="n">
-        <v>3388.561416438556</v>
+        <v>3388.561416438553</v>
       </c>
       <c r="Q23" t="n">
-        <v>3636.847778194238</v>
+        <v>3636.847778194236</v>
       </c>
       <c r="R23" t="n">
-        <v>3695.864844751041</v>
+        <v>3695.864844751038</v>
       </c>
       <c r="S23" t="n">
-        <v>3658.327479232048</v>
+        <v>3658.327479232046</v>
       </c>
       <c r="T23" t="n">
-        <v>3525.103034570182</v>
+        <v>3525.103034570181</v>
       </c>
       <c r="U23" t="n">
-        <v>3344.325860797931</v>
+        <v>3344.32586079793</v>
       </c>
       <c r="V23" t="n">
-        <v>3086.016276408273</v>
+        <v>3086.016276408272</v>
       </c>
       <c r="W23" t="n">
-        <v>2806.000924092072</v>
+        <v>2806.00092409207</v>
       </c>
       <c r="X23" t="n">
-        <v>2505.288468784904</v>
+        <v>2505.288468784903</v>
       </c>
       <c r="Y23" t="n">
-        <v>2187.902439763005</v>
+        <v>2187.902439763004</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.949034943946</v>
+        <v>948.9490349439459</v>
       </c>
       <c r="C24" t="n">
-        <v>774.496005662819</v>
+        <v>774.4960056628189</v>
       </c>
       <c r="D24" t="n">
-        <v>625.5615960015678</v>
+        <v>625.5615960015676</v>
       </c>
       <c r="E24" t="n">
-        <v>466.3241409961123</v>
+        <v>466.3241409961121</v>
       </c>
       <c r="F24" t="n">
-        <v>319.7895830229972</v>
+        <v>319.7895830229971</v>
       </c>
       <c r="G24" t="n">
-        <v>183.4264828556153</v>
+        <v>183.4264828556152</v>
       </c>
       <c r="H24" t="n">
-        <v>92.92458849348287</v>
+        <v>92.92458849348276</v>
       </c>
       <c r="I24" t="n">
-        <v>73.91729689502083</v>
+        <v>73.91729689502077</v>
       </c>
       <c r="J24" t="n">
         <v>167.5945663856381</v>
       </c>
       <c r="K24" t="n">
-        <v>405.8587653659852</v>
+        <v>405.8587653659853</v>
       </c>
       <c r="L24" t="n">
-        <v>772.5569256786506</v>
+        <v>772.5569256786507</v>
       </c>
       <c r="M24" t="n">
         <v>1219.833250900967</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.7457402272576</v>
+        <v>589.7457402272557</v>
       </c>
       <c r="C25" t="n">
-        <v>493.5628602532631</v>
+        <v>493.5628602532616</v>
       </c>
       <c r="D25" t="n">
-        <v>416.1995237948398</v>
+        <v>416.1995237948386</v>
       </c>
       <c r="E25" t="n">
-        <v>341.0397331663592</v>
+        <v>341.0397331663582</v>
       </c>
       <c r="F25" t="n">
-        <v>266.9030886223613</v>
+        <v>266.9030886223605</v>
       </c>
       <c r="G25" t="n">
-        <v>171.9535549509927</v>
+        <v>171.9535549509922</v>
       </c>
       <c r="H25" t="n">
-        <v>98.489671122763</v>
+        <v>98.4896711227627</v>
       </c>
       <c r="I25" t="n">
-        <v>73.91729689502083</v>
+        <v>73.91729689502077</v>
       </c>
       <c r="J25" t="n">
-        <v>119.0399293419564</v>
+        <v>119.0399293419563</v>
       </c>
       <c r="K25" t="n">
         <v>323.0271122908327</v>
@@ -6172,25 +6172,25 @@
         <v>1917.622574262771</v>
       </c>
       <c r="S25" t="n">
-        <v>1798.68999304351</v>
+        <v>1765.874354969332</v>
       </c>
       <c r="T25" t="n">
-        <v>1649.676680566948</v>
+        <v>1616.86104249277</v>
       </c>
       <c r="U25" t="n">
-        <v>1433.327116646504</v>
+        <v>1400.511478572327</v>
       </c>
       <c r="V25" t="n">
-        <v>1218.580293320355</v>
+        <v>1218.580293320353</v>
       </c>
       <c r="W25" t="n">
-        <v>1001.916426237307</v>
+        <v>1001.916426237305</v>
       </c>
       <c r="X25" t="n">
-        <v>846.6801782932023</v>
+        <v>846.6801782932</v>
       </c>
       <c r="Y25" t="n">
-        <v>698.6409021035847</v>
+        <v>698.6409021035827</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,19 +6224,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M26" t="n">
-        <v>1807.484051384558</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611205</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O26" t="n">
         <v>3290.208794490542</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
@@ -6306,10 +6306,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,19 +6461,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659143</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>2200.835586644152</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2747.614403702934</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
         <v>3355.268050164795</v>
@@ -6491,19 +6491,19 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643393</v>
@@ -6619,25 +6619,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960316</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,10 +6649,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>733.7666241029183</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1184.800837351327</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.332742023252</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N32" t="n">
-        <v>2265.111559082034</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411489</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572249</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.35535505275</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464991</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307349</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
@@ -6956,28 +6956,28 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960653</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647794</v>
+        <v>500.9308303909355</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107157</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D37" t="n">
-        <v>477.8923117722234</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898303</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150357</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.043308938549</v>
+        <v>804.7004397908619</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.2507297950191</v>
+        <v>583.9078606473317</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031477</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650711</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C40" t="n">
-        <v>430.6660820368722</v>
+        <v>383.4688957685353</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983799</v>
+        <v>332.0236909300429</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898302</v>
+        <v>282.7820319214931</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X40" t="n">
-        <v>946.005145338841</v>
+        <v>757.5032535225254</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953108</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307348</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
@@ -7451,10 +7451,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650713</v>
+        <v>402.2593958170912</v>
       </c>
       <c r="C43" t="n">
-        <v>374.6279184371645</v>
+        <v>331.9946474630279</v>
       </c>
       <c r="D43" t="n">
-        <v>323.1827135986721</v>
+        <v>280.5494426245357</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901225</v>
+        <v>231.3077836159862</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919195</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.057868640482</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114355</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515026</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084552</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758176</v>
+        <v>1280.777345210195</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552289</v>
+        <v>1124.764291578152</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891715</v>
+        <v>835.3471215411912</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649977</v>
+        <v>706.0290052170175</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214676</v>
+        <v>583.9078606473309</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.596102432838</v>
+        <v>1577.596102432839</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.611791311577</v>
+        <v>1290.611791311578</v>
       </c>
       <c r="D44" t="n">
-        <v>1014.324298523978</v>
+        <v>1014.324298523979</v>
       </c>
       <c r="E44" t="n">
-        <v>710.5142517448853</v>
+        <v>944.2194543105725</v>
       </c>
       <c r="F44" t="n">
-        <v>381.5065527744291</v>
+        <v>615.2117553401165</v>
       </c>
       <c r="G44" t="n">
-        <v>282.1175110042648</v>
+        <v>282.1175110042646</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,22 +7676,22 @@
         <v>3297.293358955418</v>
       </c>
       <c r="T44" t="n">
-        <v>3173.293817158791</v>
+        <v>3173.293817158792</v>
       </c>
       <c r="U44" t="n">
-        <v>3001.741546251779</v>
+        <v>3001.74154625178</v>
       </c>
       <c r="V44" t="n">
-        <v>2752.656864727359</v>
+        <v>2752.656864727361</v>
       </c>
       <c r="W44" t="n">
-        <v>2481.866415276397</v>
+        <v>2481.866415276398</v>
       </c>
       <c r="X44" t="n">
-        <v>2190.378862834468</v>
+        <v>2190.37886283447</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.217736677808</v>
+        <v>1882.217736677809</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7716,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.744445526899</v>
+        <v>517.7662397077464</v>
       </c>
       <c r="C46" t="n">
-        <v>512.7864684181435</v>
+        <v>430.8082625989911</v>
       </c>
       <c r="D46" t="n">
-        <v>444.6480348249592</v>
+        <v>362.6698290058069</v>
       </c>
       <c r="E46" t="n">
-        <v>378.7131470617175</v>
+        <v>296.7349412425654</v>
       </c>
       <c r="F46" t="n">
-        <v>231.8231995638071</v>
+        <v>231.8231995638066</v>
       </c>
       <c r="G46" t="n">
-        <v>146.0985687576775</v>
+        <v>146.0985687576771</v>
       </c>
       <c r="H46" t="n">
-        <v>81.85958779468666</v>
+        <v>81.8595877946865</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7834,22 +7834,22 @@
         <v>1809.73461831115</v>
       </c>
       <c r="T46" t="n">
-        <v>1669.946208699827</v>
+        <v>1587.968002880676</v>
       </c>
       <c r="U46" t="n">
-        <v>1462.821547644622</v>
+        <v>1298.86513600632</v>
       </c>
       <c r="V46" t="n">
-        <v>1290.115265257887</v>
+        <v>1109.701181339888</v>
       </c>
       <c r="W46" t="n">
-        <v>1082.676301040078</v>
+        <v>902.2622171220787</v>
       </c>
       <c r="X46" t="n">
-        <v>920.2072836815174</v>
+        <v>756.250872043213</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.3929103571387</v>
+        <v>617.4364987188345</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>158.2313465046801</v>
+        <v>158.2313465046798</v>
       </c>
       <c r="K8" t="n">
-        <v>185.8967426340553</v>
+        <v>185.8967426340548</v>
       </c>
       <c r="L8" t="n">
-        <v>193.3468404247629</v>
+        <v>193.3468404247622</v>
       </c>
       <c r="M8" t="n">
-        <v>183.1462831687259</v>
+        <v>183.1462831687252</v>
       </c>
       <c r="N8" t="n">
-        <v>181.4493690000683</v>
+        <v>181.4493690000676</v>
       </c>
       <c r="O8" t="n">
-        <v>184.8074547044415</v>
+        <v>184.8074547044409</v>
       </c>
       <c r="P8" t="n">
-        <v>192.5783827357905</v>
+        <v>192.5783827357899</v>
       </c>
       <c r="Q8" t="n">
-        <v>193.2776853076792</v>
+        <v>193.2776853076788</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>113.2494322041291</v>
+        <v>113.2494322041289</v>
       </c>
       <c r="K9" t="n">
-        <v>114.6170503421114</v>
+        <v>114.617050342111</v>
       </c>
       <c r="L9" t="n">
-        <v>107.3263231962466</v>
+        <v>107.3263231962461</v>
       </c>
       <c r="M9" t="n">
-        <v>105.6923648211968</v>
+        <v>105.6923648211963</v>
       </c>
       <c r="N9" t="n">
-        <v>93.93554043698376</v>
+        <v>93.93554043698322</v>
       </c>
       <c r="O9" t="n">
-        <v>108.3769052768442</v>
+        <v>108.3769052768437</v>
       </c>
       <c r="P9" t="n">
-        <v>106.5103709020996</v>
+        <v>106.5103709020992</v>
       </c>
       <c r="Q9" t="n">
-        <v>121.6227929970427</v>
+        <v>121.6227929970424</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.9581593170381</v>
+        <v>116.9581593170379</v>
       </c>
       <c r="M10" t="n">
-        <v>120.0247852920038</v>
+        <v>120.0247852920035</v>
       </c>
       <c r="N10" t="n">
-        <v>109.2339693118529</v>
+        <v>109.2339693118526</v>
       </c>
       <c r="O10" t="n">
-        <v>121.4135223237161</v>
+        <v>121.4135223237158</v>
       </c>
       <c r="P10" t="n">
-        <v>123.1447594795182</v>
+        <v>123.144759479518</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.612932010175427e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>44.72032483763871</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>366.5190330091236</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>221.285365574408</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.390262243154</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>231.1066821161363</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>105.7385611944678</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>131.2335379367245</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.735493551573</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>340.2222584652268</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>356.879736766481</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>381.8254124359307</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8710923476726</v>
+        <v>311.3558424785269</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.6526842655289</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.5648397124315</v>
+        <v>123.5648397124316</v>
       </c>
       <c r="E13" t="n">
-        <v>121.3833293407884</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.3704147171504</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>140.9751749532474</v>
       </c>
       <c r="H13" t="n">
-        <v>86.07732770565482</v>
+        <v>119.70438160854</v>
       </c>
       <c r="I13" t="n">
-        <v>71.30178710405728</v>
+        <v>71.3017871040573</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>63.88151936426657</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>3.269995837540066</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980817</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>313.1061118477571</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5002315474904</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805276</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>148.7069925266688</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>24.85345151616517</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8441182500054</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413949</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.51948462477375</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>20.32934852315979</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>338.89595572908</v>
       </c>
       <c r="H17" t="n">
-        <v>222.5819944629471</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>37.16199186380244</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>99.48131792549111</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>20.3293485231614</v>
       </c>
       <c r="E20" t="n">
-        <v>227.3331040369941</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>338.89595572908</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>131.8922002152468</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -25871,13 +25871,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>231.3681505400288</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>231.3681505400309</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>950702.8690331652</v>
+        <v>950702.8690331648</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774748.890005252</v>
+        <v>774748.8900052519</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>805396.7111322226</v>
+        <v>805396.7111322224</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>844268.6867283417</v>
+        <v>844268.6867283419</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844268.6867283417</v>
+        <v>844268.6867283416</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903121.8163101469</v>
+        <v>903121.8163101472</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854954.9876356083</v>
+        <v>854954.9876356085</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573493.4371019269</v>
+      </c>
+      <c r="C2" t="n">
         <v>573493.4371019268</v>
       </c>
-      <c r="C2" t="n">
-        <v>573493.4371019269</v>
-      </c>
       <c r="D2" t="n">
-        <v>573508.4149622545</v>
+        <v>573508.4149622546</v>
       </c>
       <c r="E2" t="n">
-        <v>508366.673803337</v>
+        <v>508366.6738033369</v>
       </c>
       <c r="F2" t="n">
-        <v>528798.5545546511</v>
+        <v>528798.5545546507</v>
       </c>
       <c r="G2" t="n">
-        <v>554713.2049520639</v>
+        <v>554713.2049520636</v>
       </c>
       <c r="H2" t="n">
         <v>554713.2049520636</v>
       </c>
       <c r="I2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="J2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="K2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="M2" t="n">
         <v>574729.2389049985</v>
@@ -26350,7 +26350,7 @@
         <v>574729.2389049982</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="P2" t="n">
         <v>561837.405556908</v>
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57264.50569047877</v>
+        <v>57264.50569047961</v>
       </c>
       <c r="E3" t="n">
-        <v>1090088.659550181</v>
+        <v>1090088.65955018</v>
       </c>
       <c r="F3" t="n">
-        <v>13221.03717371608</v>
+        <v>13221.03717371606</v>
       </c>
       <c r="G3" t="n">
-        <v>24359.0721211583</v>
+        <v>24359.07212115808</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24614.91242322686</v>
+        <v>24614.91242322723</v>
       </c>
       <c r="J3" t="n">
-        <v>23644.83369645638</v>
+        <v>23644.83369645634</v>
       </c>
       <c r="K3" t="n">
-        <v>13221.03717371607</v>
+        <v>13221.03717371606</v>
       </c>
       <c r="L3" t="n">
-        <v>24359.07212115799</v>
+        <v>24359.07212115819</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>431509.7563811262</v>
+        <v>431509.7563811259</v>
       </c>
       <c r="E4" t="n">
-        <v>38134.93329168148</v>
+        <v>38134.93329168145</v>
       </c>
       <c r="F4" t="n">
-        <v>54835.51151607359</v>
+        <v>54835.51151607353</v>
       </c>
       <c r="G4" t="n">
-        <v>75863.19439848149</v>
+        <v>75863.1943984816</v>
       </c>
       <c r="H4" t="n">
-        <v>75863.19439848152</v>
+        <v>75863.19439848163</v>
       </c>
       <c r="I4" t="n">
-        <v>90494.41428478595</v>
+        <v>90494.41428478599</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699575</v>
+        <v>88960.95519699577</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699575</v>
+        <v>88960.95519699577</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699586</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="P4" t="n">
-        <v>81672.13603417887</v>
+        <v>81672.13603417897</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35085.26676403286</v>
+        <v>35085.26676403288</v>
       </c>
       <c r="E5" t="n">
-        <v>76412.322252777</v>
+        <v>76412.32225277698</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.67147047343</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="G5" t="n">
         <v>80361.47501316547</v>
       </c>
       <c r="H5" t="n">
-        <v>80361.47501316547</v>
+        <v>80361.47501316544</v>
       </c>
       <c r="I5" t="n">
-        <v>85989.41216492187</v>
+        <v>85989.41216492184</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>81129.24808855343</v>
+        <v>81129.24808855346</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87465.84655296159</v>
+        <v>87461.4329750936</v>
       </c>
       <c r="C6" t="n">
-        <v>87465.84655296171</v>
+        <v>87461.43297509348</v>
       </c>
       <c r="D6" t="n">
-        <v>49648.88612661665</v>
+        <v>49644.52604110642</v>
       </c>
       <c r="E6" t="n">
-        <v>-696269.2412913027</v>
+        <v>-696506.250452379</v>
       </c>
       <c r="F6" t="n">
-        <v>382940.334394388</v>
+        <v>382776.2962359936</v>
       </c>
       <c r="G6" t="n">
-        <v>374129.4634192585</v>
+        <v>374057.9775837121</v>
       </c>
       <c r="H6" t="n">
-        <v>398488.5355404166</v>
+        <v>398417.0497048704</v>
       </c>
       <c r="I6" t="n">
-        <v>373630.5000320638</v>
+        <v>373630.5000320637</v>
       </c>
       <c r="J6" t="n">
-        <v>372745.5083367404</v>
+        <v>372745.5083367405</v>
       </c>
       <c r="K6" t="n">
-        <v>383169.3048594808</v>
+        <v>383169.3048594811</v>
       </c>
       <c r="L6" t="n">
-        <v>372031.2699120391</v>
+        <v>372031.2699120386</v>
       </c>
       <c r="M6" t="n">
-        <v>197858.6426878427</v>
+        <v>197858.6426878426</v>
       </c>
       <c r="N6" t="n">
+        <v>400026.7426805667</v>
+      </c>
+      <c r="O6" t="n">
         <v>400026.7426805666</v>
       </c>
-      <c r="O6" t="n">
-        <v>400026.7426805672</v>
-      </c>
       <c r="P6" t="n">
-        <v>399036.0214341757</v>
+        <v>398989.9791722181</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="G2" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="H2" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="I2" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859254</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="P2" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>66.86544789141557</v>
+        <v>66.86544789141655</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>923.9662111877602</v>
+        <v>923.9662111877595</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,34 +26914,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="F2" t="n">
-        <v>16.5262964671451</v>
+        <v>16.52629646714508</v>
       </c>
       <c r="G2" t="n">
-        <v>30.44884015144743</v>
+        <v>30.4488401514476</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>16.52629646714509</v>
+        <v>16.52629646714508</v>
       </c>
       <c r="L2" t="n">
-        <v>30.44884015144748</v>
+        <v>30.44884015144774</v>
       </c>
       <c r="M2" t="n">
         <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>66.86544789141557</v>
+        <v>66.86544789141655</v>
       </c>
       <c r="E3" t="n">
-        <v>1022.911252701883</v>
+        <v>1022.911252701882</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>92.56475578546713</v>
+        <v>92.5647557854669</v>
       </c>
       <c r="J4" t="n">
-        <v>90.3702500208542</v>
+        <v>90.37025002085488</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="K2" t="n">
-        <v>16.5262964671451</v>
+        <v>16.52629646714508</v>
       </c>
       <c r="L2" t="n">
-        <v>30.44884015144743</v>
+        <v>30.4488401514476</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16.52629646714509</v>
+        <v>16.52629646714508</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.7218945048407</v>
+        <v>336.7218945048406</v>
       </c>
       <c r="I8" t="n">
-        <v>200.112753169064</v>
+        <v>200.1127531690639</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.9837443085501</v>
+        <v>132.9837443085499</v>
       </c>
       <c r="S8" t="n">
-        <v>202.8946569477503</v>
+        <v>202.8946569477502</v>
       </c>
       <c r="T8" t="n">
         <v>221.9191520841528</v>
@@ -27950,7 +27950,7 @@
         <v>110.8464091774691</v>
       </c>
       <c r="I9" t="n">
-        <v>84.44480487077723</v>
+        <v>84.44480487077715</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>91.22814282857823</v>
+        <v>91.2281428285781</v>
       </c>
       <c r="S9" t="n">
         <v>169.0117072187421</v>
@@ -28032,10 +28032,10 @@
         <v>151.8243945727533</v>
       </c>
       <c r="J10" t="n">
-        <v>84.83438358795902</v>
+        <v>84.8343835879589</v>
       </c>
       <c r="K10" t="n">
-        <v>8.260632415189562</v>
+        <v>8.260632415189356</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.06536062009063</v>
+        <v>76.06536062009049</v>
       </c>
       <c r="R10" t="n">
-        <v>171.8718093235475</v>
+        <v>171.8718093235474</v>
       </c>
       <c r="S10" t="n">
-        <v>221.9152691253683</v>
+        <v>221.9152691253682</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4303966330526</v>
+        <v>227.4303966330525</v>
       </c>
       <c r="U10" t="n">
         <v>286.3124524271901</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="C11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="D11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="E11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="F11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="G11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="H11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="I11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="T11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="U11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="V11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="W11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="X11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="C13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="D13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="E13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="F13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="G13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="H13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="I13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="J13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="K13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="L13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="M13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="N13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="O13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="P13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="R13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="S13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="T13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="U13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="V13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="W13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="X13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.05063330578081</v>
+        <v>25.05063330578078</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="C17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="D17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="E17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="F17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="G17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="H17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="T17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="U17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="V17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="W17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="X17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="Y17" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="C19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="D19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="E19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="F19" t="n">
-        <v>39.53828823093987</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="G19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="H19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="I19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="S19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="T19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="U19" t="n">
-        <v>72.02576992437335</v>
+        <v>39.53828823093951</v>
       </c>
       <c r="V19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="W19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="X19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437345</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="C20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="D20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="E20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="F20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="G20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="H20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="T20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="U20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="V20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="W20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="X20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="Y20" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="C22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="D22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="E22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="F22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="G22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="H22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="I22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="S22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="T22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="U22" t="n">
-        <v>72.02576992437335</v>
+        <v>39.53828823093951</v>
       </c>
       <c r="V22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="W22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="X22" t="n">
-        <v>39.53828823093983</v>
+        <v>72.02576992437346</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437346</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="C23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="D23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="E23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="F23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="G23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="H23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="T23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="U23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="V23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="W23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="X23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="Y23" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="C25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="D25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="E25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="F25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="G25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="H25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="I25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="S25" t="n">
-        <v>72.02576992437335</v>
+        <v>39.53828823093687</v>
       </c>
       <c r="T25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="U25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="V25" t="n">
-        <v>39.53828823094065</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="W25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="X25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.02576992437335</v>
+        <v>72.02576992437358</v>
       </c>
     </row>
     <row r="26">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859011</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859268</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810492</v>
+        <v>46.72521440565305</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>55.47778196371115</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30381,22 +30381,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>55.4777819637109</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>46.7252144056539</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371065</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.7252144056514</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810515</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="C44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="D44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="E44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="F44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="G44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="H44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="T44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="U44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="V44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="W44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="X44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="C46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="D46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="E46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="G46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="H46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="I46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="S46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="T46" t="n">
-        <v>81.15842376095989</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>81.15842376095989</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>81.15842376095989</v>
+        <v>64.86532820406043</v>
       </c>
       <c r="W46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="X46" t="n">
-        <v>64.86532820406242</v>
+        <v>81.15842376096006</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.15842376095989</v>
+        <v>81.15842376096006</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2688058206690071</v>
+        <v>0.268805820669011</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75290761092647</v>
+        <v>2.75290761092651</v>
       </c>
       <c r="I8" t="n">
-        <v>10.36313640134191</v>
+        <v>10.36313640134206</v>
       </c>
       <c r="J8" t="n">
-        <v>22.81455802200616</v>
+        <v>22.8145580220065</v>
       </c>
       <c r="K8" t="n">
-        <v>34.19310841092524</v>
+        <v>34.19310841092575</v>
       </c>
       <c r="L8" t="n">
-        <v>42.41957454522438</v>
+        <v>42.419574545225</v>
       </c>
       <c r="M8" t="n">
-        <v>47.19995005854683</v>
+        <v>47.19995005854752</v>
       </c>
       <c r="N8" t="n">
-        <v>47.96369459652265</v>
+        <v>47.96369459652335</v>
       </c>
       <c r="O8" t="n">
-        <v>45.29075671724521</v>
+        <v>45.29075671724587</v>
       </c>
       <c r="P8" t="n">
-        <v>38.65461301947909</v>
+        <v>38.65461301947965</v>
       </c>
       <c r="Q8" t="n">
-        <v>29.02800456677026</v>
+        <v>29.02800456677069</v>
       </c>
       <c r="R8" t="n">
-        <v>16.88537363259953</v>
+        <v>16.88537363259978</v>
       </c>
       <c r="S8" t="n">
-        <v>6.125412638495006</v>
+        <v>6.125412638495096</v>
       </c>
       <c r="T8" t="n">
-        <v>1.176697479978579</v>
+        <v>1.176697479978597</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02150446565352056</v>
+        <v>0.02150446565352088</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1438237935777618</v>
+        <v>0.1438237935777639</v>
       </c>
       <c r="H9" t="n">
-        <v>1.389035059027331</v>
+        <v>1.389035059027352</v>
       </c>
       <c r="I9" t="n">
-        <v>4.951827980637852</v>
+        <v>4.951827980637924</v>
       </c>
       <c r="J9" t="n">
-        <v>13.58819446253758</v>
+        <v>13.58819446253777</v>
       </c>
       <c r="K9" t="n">
-        <v>23.22438863224762</v>
+        <v>23.22438863224795</v>
       </c>
       <c r="L9" t="n">
-        <v>31.22805658362762</v>
+        <v>31.22805658362808</v>
       </c>
       <c r="M9" t="n">
-        <v>36.44166910082148</v>
+        <v>36.44166910082202</v>
       </c>
       <c r="N9" t="n">
-        <v>37.40617164634955</v>
+        <v>37.4061716463501</v>
       </c>
       <c r="O9" t="n">
-        <v>34.21933916760019</v>
+        <v>34.21933916760069</v>
       </c>
       <c r="P9" t="n">
-        <v>27.46403651223067</v>
+        <v>27.46403651223108</v>
       </c>
       <c r="Q9" t="n">
-        <v>18.35898108897886</v>
+        <v>18.35898108897913</v>
       </c>
       <c r="R9" t="n">
-        <v>8.929691324064898</v>
+        <v>8.929691324065029</v>
       </c>
       <c r="S9" t="n">
-        <v>2.671463885095705</v>
+        <v>2.671463885095744</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5797108170963291</v>
+        <v>0.5797108170963376</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009462091682747491</v>
+        <v>0.00946209168274763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1205770371812412</v>
+        <v>0.1205770371812429</v>
       </c>
       <c r="H10" t="n">
-        <v>1.072039476029581</v>
+        <v>1.072039476029597</v>
       </c>
       <c r="I10" t="n">
-        <v>3.626080354504963</v>
+        <v>3.626080354505016</v>
       </c>
       <c r="J10" t="n">
-        <v>8.52479652871375</v>
+        <v>8.524796528713876</v>
       </c>
       <c r="K10" t="n">
-        <v>14.00885941069329</v>
+        <v>14.0088594106935</v>
       </c>
       <c r="L10" t="n">
-        <v>17.92651696420017</v>
+        <v>17.92651696420043</v>
       </c>
       <c r="M10" t="n">
-        <v>18.90099865560128</v>
+        <v>18.90099865560156</v>
       </c>
       <c r="N10" t="n">
-        <v>18.45157515338031</v>
+        <v>18.45157515338058</v>
       </c>
       <c r="O10" t="n">
-        <v>17.04301612812671</v>
+        <v>17.04301612812696</v>
       </c>
       <c r="P10" t="n">
-        <v>14.58324456962938</v>
+        <v>14.5832445696296</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.09668263160375</v>
+        <v>10.0966826316039</v>
       </c>
       <c r="R10" t="n">
-        <v>5.421582053621989</v>
+        <v>5.421582053622068</v>
       </c>
       <c r="S10" t="n">
-        <v>2.101328911603993</v>
+        <v>2.101328911604024</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5151927952289395</v>
+        <v>0.515192795228947</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006576929300794981</v>
+        <v>0.006576929300795078</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.928301823346</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33971,10 +33971,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>70.62904991884703</v>
+        <v>70.629049918847</v>
       </c>
       <c r="K13" t="n">
-        <v>231.0982928501004</v>
+        <v>231.0982928501003</v>
       </c>
       <c r="L13" t="n">
         <v>344.8080054759789</v>
       </c>
       <c r="M13" t="n">
-        <v>372.6840126992647</v>
+        <v>372.6840126992646</v>
       </c>
       <c r="N13" t="n">
         <v>369.9075794733209</v>
       </c>
       <c r="O13" t="n">
-        <v>327.4037635284206</v>
+        <v>327.4037635284205</v>
       </c>
       <c r="P13" t="n">
-        <v>260.0077044508913</v>
+        <v>260.0077044508912</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.4448718436745</v>
+        <v>103.4448718436744</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599217</v>
+        <v>87.15534638599208</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172456</v>
+        <v>247.6245893172454</v>
       </c>
       <c r="L16" t="n">
-        <v>361.3343019431241</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N16" t="n">
-        <v>386.4338759404661</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955658</v>
+        <v>343.9300599955656</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108195</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013277</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>235.5073258063513</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,13 +36367,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>918.8208684220351</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>760.2064814046348</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>673.4432631313731</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230594</v>
+        <v>770.0277979463631</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>613.7915620826872</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>468.424824492125</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>647.6566093817997</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37087,10 +37087,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316589</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861302</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637023</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882178</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
